--- a/public/files/template/inventory/rkbu.xlsx
+++ b/public/files/template/inventory/rkbu.xlsx
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,11 +147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -165,6 +180,13 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q12"/>
+  <dimension ref="A3:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,55 +552,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
